--- a/biology/Botanique/Atrichum_undulatum/Atrichum_undulatum.xlsx
+++ b/biology/Botanique/Atrichum_undulatum/Atrichum_undulatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atrichum undulatum, l'Atric ondulé est une espèce de mousse acrocarpe, de la famille des Polytrichaceae[1],[2]. Elle est présente dans tout l'hémisphère Nord. C'est une espèce forestière commune en France, sauf dans la région méditerranéenne[3].
-Le nom latin est constitué de trichum qui signifie poil, et du préfixe privatif a en référence à la coiffe qui est glabre, contrairement aux Polytrichum, et de undulatum qui signifie ondulé, en référence au feuilles[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atrichum undulatum, l'Atric ondulé est une espèce de mousse acrocarpe, de la famille des Polytrichaceae,. Elle est présente dans tout l'hémisphère Nord. C'est une espèce forestière commune en France, sauf dans la région méditerranéenne.
+Le nom latin est constitué de trichum qui signifie poil, et du préfixe privatif a en référence à la coiffe qui est glabre, contrairement aux Polytrichum, et de undulatum qui signifie ondulé, en référence au feuilles.
 </t>
         </is>
       </c>
@@ -512,15 +524,123 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une mousse acrocarpe, non ramifiée, qui forme des tapis lâches, composés de pieds non-ramifiés allant jusqu'à 7 cm[4].
-Gamétophyte
-Les feuilles sont linéaires, longues de 1 cm, dentées, ondulées transversalement et se terminent en pointe. Fait rare chez les Polytrichacae, la nervure est étroite, et ne présente que quelques rangées de lamelles chlorophylliennes. La nervure est également denté sur son revers[4],[5].
-Sporophyte
-Le capsules cylindriques sont portées par une soie de 2 à 4 cm, et sont penchées à l'horizontal. Le péristome est constitué de 32 dents, et la capsule est fermée par une membrane, en plus de l'opercule[2],[4],[5].
-Identification
-La nervure étroite avec les lamelles est caractéristique du genre. La capsule inclinée et les feuilles ondulées sont typiques de l'espèce[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une mousse acrocarpe, non ramifiée, qui forme des tapis lâches, composés de pieds non-ramifiés allant jusqu'à 7 cm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Atrichum_undulatum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atrichum_undulatum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gamétophyte</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont linéaires, longues de 1 cm, dentées, ondulées transversalement et se terminent en pointe. Fait rare chez les Polytrichacae, la nervure est étroite, et ne présente que quelques rangées de lamelles chlorophylliennes. La nervure est également denté sur son revers,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Atrichum_undulatum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atrichum_undulatum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sporophyte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le capsules cylindriques sont portées par une soie de 2 à 4 cm, et sont penchées à l'horizontal. Le péristome est constitué de 32 dents, et la capsule est fermée par une membrane, en plus de l'opercule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Atrichum_undulatum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atrichum_undulatum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Identification</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La nervure étroite avec les lamelles est caractéristique du genre. La capsule inclinée et les feuilles ondulées sont typiques de l'espèce.
 			Tapis d'Atrichum undulatum.
 			Atrichum undulatum, avec les feuilles ondulées bien visibles.
 			Capsules d'Atrichum undulatum, inclinées à l'horizontal.
@@ -530,64 +650,68 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Atrichum_undulatum</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Atrichum_undulatum</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distribution et menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans tout hémisphère Nord. En France métropolitaine on la retrouve partout, mais elle est rare en région méditerranéenne[6]. Elle n'est pas menacée en Europe, ni dans les régions de France où elle a été évaluée[1],[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans tout hémisphère Nord. En France métropolitaine on la retrouve partout, mais elle est rare en région méditerranéenne. Elle n'est pas menacée en Europe, ni dans les régions de France où elle a été évaluée,.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Atrichum_undulatum</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Atrichum_undulatum</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce se développe sur le sol frais, acidicline dans les contextes ombragés. On la trouve en forêt, dans les fourrés, les talus et sur les bords de chemin[2],[5],[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se développe sur le sol frais, acidicline dans les contextes ombragés. On la trouve en forêt, dans les fourrés, les talus et sur les bords de chemin.
 </t>
         </is>
       </c>
